--- a/file/guro-gu.xlsx
+++ b/file/guro-gu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD3F9BC5-A054-4504-A80A-892226953E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEB37F7-4F48-4477-B4DE-5FB47D6E7661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D64A07E-4E5C-44D1-BD97-E11A1EBFB20E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="116">
   <si>
     <t>아이디</t>
   </si>
@@ -154,12 +154,6 @@
   </si>
   <si>
     <t>구로우성</t>
-  </si>
-  <si>
-    <t>구로주공1차</t>
-  </si>
-  <si>
-    <t>구로주공2차</t>
   </si>
   <si>
     <t>구로중앙하이츠(1269)</t>
@@ -783,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB69030-0A55-4EDF-831E-C4AA0701AFF9}">
-  <dimension ref="A1:B63343"/>
+  <dimension ref="A1:B63341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -1130,9 +1124,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>137</v>
+        <v>10663</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>43</v>
@@ -1140,15 +1134,15 @@
     </row>
     <row r="44" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>10663</v>
+        <v>125</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>45</v>
@@ -1156,7 +1150,7 @@
     </row>
     <row r="46" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>46</v>
@@ -1164,7 +1158,7 @@
     </row>
     <row r="47" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>47</v>
@@ -1172,7 +1166,7 @@
     </row>
     <row r="48" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>140</v>
+        <v>1266</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>48</v>
@@ -1180,7 +1174,7 @@
     </row>
     <row r="49" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>49</v>
@@ -1188,7 +1182,7 @@
     </row>
     <row r="50" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>1266</v>
+        <v>127</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>50</v>
@@ -1196,23 +1190,23 @@
     </row>
     <row r="51" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>133</v>
+        <v>8073</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>127</v>
+        <v>1269</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>8073</v>
+        <v>22007</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>53</v>
@@ -1220,23 +1214,23 @@
     </row>
     <row r="54" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>1269</v>
+        <v>17827</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>22007</v>
+        <v>132</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>17827</v>
+        <v>3204</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>56</v>
@@ -1244,7 +1238,7 @@
     </row>
     <row r="57" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>132</v>
+        <v>9937</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>57</v>
@@ -1252,7 +1246,7 @@
     </row>
     <row r="58" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>3204</v>
+        <v>9858</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>58</v>
@@ -1260,7 +1254,7 @@
     </row>
     <row r="59" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>9937</v>
+        <v>10547</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>59</v>
@@ -1268,7 +1262,7 @@
     </row>
     <row r="60" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>9858</v>
+        <v>3201</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>60</v>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="61" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>10547</v>
+        <v>3202</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>61</v>
@@ -1284,15 +1278,15 @@
     </row>
     <row r="62" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>3201</v>
+        <v>136</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>3202</v>
+        <v>141</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>63</v>
@@ -1300,39 +1294,39 @@
     </row>
     <row r="64" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>136</v>
+        <v>18913</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>141</v>
+        <v>17418</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>18913</v>
+        <v>129</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>17418</v>
+        <v>145</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>67</v>
@@ -1340,15 +1334,15 @@
     </row>
     <row r="69" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>145</v>
+        <v>15768</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>147</v>
+        <v>27310</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>69</v>
@@ -1356,7 +1350,7 @@
     </row>
     <row r="71" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>15768</v>
+        <v>149</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>70</v>
@@ -1364,15 +1358,15 @@
     </row>
     <row r="72" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>27310</v>
+        <v>3356</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>149</v>
+        <v>8714</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>72</v>
@@ -1380,7 +1374,7 @@
     </row>
     <row r="74" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>3356</v>
+        <v>8919</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>73</v>
@@ -1388,7 +1382,7 @@
     </row>
     <row r="75" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>8714</v>
+        <v>13085</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>74</v>
@@ -1396,7 +1390,7 @@
     </row>
     <row r="76" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>8919</v>
+        <v>3354</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>75</v>
@@ -1404,23 +1398,23 @@
     </row>
     <row r="77" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>13085</v>
+        <v>3355</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>3354</v>
+        <v>1074</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>3355</v>
+        <v>3209</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>78</v>
@@ -1428,7 +1422,7 @@
     </row>
     <row r="80" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>1074</v>
+        <v>3210</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>79</v>
@@ -1436,15 +1430,15 @@
     </row>
     <row r="81" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>3209</v>
+        <v>152</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>3210</v>
+        <v>113817</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>81</v>
@@ -1452,39 +1446,39 @@
     </row>
     <row r="83" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>113817</v>
+        <v>3211</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>153</v>
+        <v>8311</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>8311</v>
+        <v>9629</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>85</v>
@@ -1492,31 +1486,31 @@
     </row>
     <row r="88" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>9629</v>
+        <v>157</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>3213</v>
+        <v>156</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>157</v>
+        <v>1076</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>88</v>
@@ -1524,7 +1518,7 @@
     </row>
     <row r="92" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>89</v>
@@ -1532,7 +1526,7 @@
     </row>
     <row r="93" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>1076</v>
+        <v>155</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>90</v>
@@ -1540,31 +1534,31 @@
     </row>
     <row r="94" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>158</v>
+        <v>15805</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>155</v>
+        <v>3357</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>15805</v>
+        <v>9046</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>3357</v>
+        <v>175357</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>93</v>
@@ -1572,39 +1566,39 @@
     </row>
     <row r="98" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>9046</v>
+        <v>3358</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>175357</v>
+        <v>3216</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>105909</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
-        <v>3358</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>3216</v>
+        <v>17093</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>105909</v>
+        <v>19406</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>97</v>
@@ -1612,7 +1606,7 @@
     </row>
     <row r="103" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>17093</v>
+        <v>17095</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>98</v>
@@ -1620,23 +1614,23 @@
     </row>
     <row r="104" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>19406</v>
+        <v>26639</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>17095</v>
+        <v>107065</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>26639</v>
+        <v>107066</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>101</v>
@@ -1644,7 +1638,7 @@
     </row>
     <row r="107" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>107065</v>
+        <v>102850</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>102</v>
@@ -1652,7 +1646,7 @@
     </row>
     <row r="108" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>107066</v>
+        <v>102851</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>103</v>
@@ -1660,7 +1654,7 @@
     </row>
     <row r="109" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>102850</v>
+        <v>102852</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>104</v>
@@ -1668,7 +1662,7 @@
     </row>
     <row r="110" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>102851</v>
+        <v>103269</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>105</v>
@@ -1676,7 +1670,7 @@
     </row>
     <row r="111" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>102852</v>
+        <v>102853</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>106</v>
@@ -1684,7 +1678,7 @@
     </row>
     <row r="112" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>103269</v>
+        <v>102854</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>107</v>
@@ -1692,7 +1686,7 @@
     </row>
     <row r="113" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>102853</v>
+        <v>17478</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>108</v>
@@ -1700,23 +1694,23 @@
     </row>
     <row r="114" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>102854</v>
+        <v>120035</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>17478</v>
+        <v>125299</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>120035</v>
+        <v>122446</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>111</v>
@@ -1724,23 +1718,23 @@
     </row>
     <row r="117" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>125299</v>
+        <v>124394</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>122446</v>
+        <v>119166</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>124394</v>
+        <v>119598</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>114</v>
@@ -1748,39 +1742,24 @@
     </row>
     <row r="120" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>119166</v>
+        <v>118711</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
-        <v>119598</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
-        <v>118711</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63341" spans="1:2" ht="13.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="63342" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63342" s="3"/>
-      <c r="B63342" s="3"/>
-    </row>
-    <row r="63343" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63343" s="3"/>
-      <c r="B63343" s="3"/>
+    <row r="63339" spans="1:2" ht="13.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="63340" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63340" s="3"/>
+      <c r="B63340" s="3"/>
+    </row>
+    <row r="63341" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63341" s="3"/>
+      <c r="B63341" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/file/guro-gu.xlsx
+++ b/file/guro-gu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEB37F7-4F48-4477-B4DE-5FB47D6E7661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C513F057-8EAB-4F87-981E-2F5888B261B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D64A07E-4E5C-44D1-BD97-E11A1EBFB20E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="113">
   <si>
     <t>아이디</t>
   </si>
@@ -150,9 +150,6 @@
     <t>구로두산위브</t>
   </si>
   <si>
-    <t>구로오네뜨시티(도시형)</t>
-  </si>
-  <si>
     <t>구로우성</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t>신도림우성3차</t>
   </si>
   <si>
-    <t>신도림크라운빌(도시형)</t>
-  </si>
-  <si>
     <t>우성2차</t>
   </si>
   <si>
@@ -310,9 +304,6 @@
   </si>
   <si>
     <t>한신플러스타운</t>
-  </si>
-  <si>
-    <t>현대썬앤빌구로(도시형)</t>
   </si>
   <si>
     <t>대흥</t>
@@ -777,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB69030-0A55-4EDF-831E-C4AA0701AFF9}">
-  <dimension ref="A1:B63341"/>
+  <dimension ref="A1:B63338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -1108,25 +1099,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>144493</v>
+        <v>1072</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>1072</v>
+        <v>10663</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>10663</v>
+        <v>143</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>43</v>
@@ -1134,7 +1125,7 @@
     </row>
     <row r="44" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>44</v>
@@ -1142,7 +1133,7 @@
     </row>
     <row r="45" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>45</v>
@@ -1150,7 +1141,7 @@
     </row>
     <row r="46" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>46</v>
@@ -1158,7 +1149,7 @@
     </row>
     <row r="47" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>130</v>
+        <v>1266</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>47</v>
@@ -1166,7 +1157,7 @@
     </row>
     <row r="48" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>1266</v>
+        <v>133</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>48</v>
@@ -1174,7 +1165,7 @@
     </row>
     <row r="49" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>49</v>
@@ -1182,39 +1173,39 @@
     </row>
     <row r="50" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>127</v>
+        <v>8073</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>8073</v>
+        <v>1269</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>1269</v>
+        <v>22007</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>22007</v>
+        <v>17827</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>17827</v>
+        <v>132</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>54</v>
@@ -1222,7 +1213,7 @@
     </row>
     <row r="55" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>132</v>
+        <v>3204</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>55</v>
@@ -1230,7 +1221,7 @@
     </row>
     <row r="56" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>3204</v>
+        <v>9937</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>56</v>
@@ -1238,7 +1229,7 @@
     </row>
     <row r="57" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>9937</v>
+        <v>9858</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>57</v>
@@ -1246,7 +1237,7 @@
     </row>
     <row r="58" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>9858</v>
+        <v>10547</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>58</v>
@@ -1254,7 +1245,7 @@
     </row>
     <row r="59" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>10547</v>
+        <v>3201</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>59</v>
@@ -1262,7 +1253,7 @@
     </row>
     <row r="60" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>60</v>
@@ -1270,23 +1261,23 @@
     </row>
     <row r="61" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>3202</v>
+        <v>136</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>141</v>
+        <v>18913</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>63</v>
@@ -1294,23 +1285,23 @@
     </row>
     <row r="64" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>18913</v>
+        <v>17418</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>17418</v>
+        <v>129</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>65</v>
@@ -1318,7 +1309,7 @@
     </row>
     <row r="67" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>66</v>
@@ -1326,31 +1317,31 @@
     </row>
     <row r="68" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>147</v>
+        <v>15768</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>15768</v>
+        <v>27310</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>27310</v>
+        <v>149</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>149</v>
+        <v>3356</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>70</v>
@@ -1358,7 +1349,7 @@
     </row>
     <row r="72" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>3356</v>
+        <v>8714</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>71</v>
@@ -1366,7 +1357,7 @@
     </row>
     <row r="73" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>8714</v>
+        <v>8919</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>72</v>
@@ -1374,7 +1365,7 @@
     </row>
     <row r="74" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>8919</v>
+        <v>13085</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>73</v>
@@ -1382,7 +1373,7 @@
     </row>
     <row r="75" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>13085</v>
+        <v>3354</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>74</v>
@@ -1390,15 +1381,15 @@
     </row>
     <row r="76" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>3355</v>
+        <v>1074</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>76</v>
@@ -1406,7 +1397,7 @@
     </row>
     <row r="78" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>1074</v>
+        <v>3209</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>77</v>
@@ -1414,7 +1405,7 @@
     </row>
     <row r="79" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>78</v>
@@ -1422,7 +1413,7 @@
     </row>
     <row r="80" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>3210</v>
+        <v>152</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>79</v>
@@ -1430,39 +1421,39 @@
     </row>
     <row r="81" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>113817</v>
+        <v>3211</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>153</v>
+        <v>8311</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>8311</v>
+        <v>9629</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>83</v>
@@ -1470,31 +1461,31 @@
     </row>
     <row r="86" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>9629</v>
+        <v>157</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>3213</v>
+        <v>156</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>157</v>
+        <v>1076</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>86</v>
@@ -1502,7 +1493,7 @@
     </row>
     <row r="90" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>87</v>
@@ -1510,7 +1501,7 @@
     </row>
     <row r="91" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>1076</v>
+        <v>155</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>88</v>
@@ -1518,31 +1509,31 @@
     </row>
     <row r="92" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>158</v>
+        <v>15805</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>155</v>
+        <v>3357</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>15805</v>
+        <v>9046</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>3357</v>
+        <v>175357</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>91</v>
@@ -1550,39 +1541,39 @@
     </row>
     <row r="96" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>9046</v>
+        <v>3358</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>175357</v>
+        <v>3216</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>3358</v>
+        <v>17093</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>3216</v>
+        <v>19406</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>105909</v>
+        <v>17095</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>95</v>
@@ -1590,31 +1581,31 @@
     </row>
     <row r="101" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>17093</v>
+        <v>26639</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>19406</v>
+        <v>107065</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>17095</v>
+        <v>107066</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>26639</v>
+        <v>102850</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>99</v>
@@ -1622,7 +1613,7 @@
     </row>
     <row r="105" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>107065</v>
+        <v>102851</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>100</v>
@@ -1630,7 +1621,7 @@
     </row>
     <row r="106" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>107066</v>
+        <v>102852</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>101</v>
@@ -1638,7 +1629,7 @@
     </row>
     <row r="107" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>102850</v>
+        <v>103269</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>102</v>
@@ -1646,7 +1637,7 @@
     </row>
     <row r="108" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>102851</v>
+        <v>102853</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>103</v>
@@ -1654,7 +1645,7 @@
     </row>
     <row r="109" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>102852</v>
+        <v>102854</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>104</v>
@@ -1662,7 +1653,7 @@
     </row>
     <row r="110" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>103269</v>
+        <v>17478</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>105</v>
@@ -1670,92 +1661,68 @@
     </row>
     <row r="111" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>102853</v>
+        <v>120035</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>102854</v>
+        <v>125299</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>17478</v>
+        <v>122446</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>120035</v>
+        <v>124394</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>125299</v>
+        <v>119166</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>122446</v>
+        <v>119598</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>124394</v>
+        <v>118711</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
-        <v>119166</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
-        <v>119598</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
-        <v>118711</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63339" spans="1:2" ht="13.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="63340" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63340" s="3"/>
-      <c r="B63340" s="3"/>
-    </row>
-    <row r="63341" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63341" s="3"/>
-      <c r="B63341" s="3"/>
+    <row r="63336" spans="1:2" ht="13.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="63337" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63337" s="3"/>
+      <c r="B63337" s="3"/>
+    </row>
+    <row r="63338" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63338" s="3"/>
+      <c r="B63338" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
